--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009971</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信核心价值混合A</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.74</t>
+          <t>11.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009972</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信核心价值混合C</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.74</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>010201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>农银汇理智增一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>009971</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>创金合信核心价值混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010201</t>
+          <t>002463</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银汇理智增一年定期开放混合</t>
+          <t>创金合信价值红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.44</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002463</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>000433</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
+          <t>安信鑫发优选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>005404</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
+          <t>创金合信价值红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>010101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,34 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005404</t>
+          <t>009972</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合C</t>
+          <t>创金合信核心价值混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1032,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -922,15 +1078,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>24.81</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -945,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1130,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1014,25 +1198,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,26 +1236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1070,25 +1274,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>创金合信鑫祺混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,25 +1312,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1136,15 +1360,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>50.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1154,25 +1388,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,25 +1426,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,25 +1464,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>67.63</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>11.92</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,25 +1502,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>010002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>创金合信研究精选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,25 +1540,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,15 +1588,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>29.96</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,15 +1626,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>88.23</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1350,26 +1654,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>65.08</t>
-        </is>
-      </c>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1386,17 +1694,21 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>65.08</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>7.13</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1662,7 +1663,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -1694,7 +1694,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -1709,6 +1708,554 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2262,4 +2263,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2661,4 +2662,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2670,7 +2671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2681,17 +2682,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2701,14 +2722,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2717,14 +2760,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2733,14 +2798,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.42</v>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2749,13 +2836,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2993,7 +2994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3004,17 +3005,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3024,14 +3045,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3040,14 +3083,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -3056,14 +3121,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.06</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3072,14 +3159,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.42</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3088,13 +3197,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,655 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6475</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5310</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4251</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010201</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银汇理智增一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3827</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1061</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0835</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信鼎诚3个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1114,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1165,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>050001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>博时价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>22.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>69.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7665</t>
+          <t>0.5926</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1203,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>81.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6283</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1241,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>62.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5040</t>
+          <t>0.2599</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1279,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>82.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0953</t>
+          <t>0.2483</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1317,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>62.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.2443</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1355,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>84.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.1295</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1393,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>012491</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>华商核心引力混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>83.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0632</t>
+          <t>0.1257</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1431,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>002434</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>中银宏利灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0626</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1469,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>84.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11.92</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0429</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1507,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010002</t>
+          <t>003966</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票C</t>
+          <t>中银润利灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1545,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>011807</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>平安研究精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1583,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>002261</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>中银宝利灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.96</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1621,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>002614</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
+          <t>中银颐利灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1659,29 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>003967</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1690,29 +1171,302 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>002615</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1747,7 +1501,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1777,36 +1531,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>050001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>博时价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>68.11</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3169</t>
+          <t>0.6263</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1815,36 +1569,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2242</t>
+          <t>0.2582</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1853,36 +1607,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1039</t>
+          <t>0.1363</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1891,36 +1645,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0894</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1929,36 +1683,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>40.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1967,36 +1721,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0471</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2005,262 +1759,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>004244</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>东方周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>88.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006522</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006523</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通新兴蓝筹混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>68.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2693,7 +2221,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2723,36 +2251,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050001</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时价值增长混合</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.67</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>68.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6263</t>
+          <t>0.3169</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2761,36 +2289,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2242</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2799,36 +2327,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1363</t>
+          <t>0.1039</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2837,36 +2365,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>创金合信鑫祺混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0894</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2875,36 +2403,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40.05</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2913,36 +2441,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>009907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>湘财长泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0471</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2951,36 +2479,262 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.22</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0536</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +2748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,7 +2769,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3045,36 +2799,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050001</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时价值增长混合</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.97</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.99</t>
+          <t>65.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5926</t>
+          <t>0.7665</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3083,36 +2837,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.79</t>
+          <t>57.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3242</t>
+          <t>0.6283</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3121,36 +2875,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.17</t>
+          <t>62.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2599</t>
+          <t>0.5040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3159,36 +2913,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>009005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>创金合信鑫祺混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.17</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2483</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3197,36 +2951,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.31</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2443</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3235,36 +2989,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.19</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1295</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3273,36 +3027,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012491</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商核心引力混合型证券投资基金A</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>67.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1257</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3311,36 +3065,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002434</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银宏利灵活配置混合A</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>89.29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0626</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3349,36 +3103,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.19</t>
+          <t>67.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.0429</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3387,36 +3141,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003966</t>
+          <t>010002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合A</t>
+          <t>创金合信研究精选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>89.29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3425,36 +3179,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011807</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安研究精选混合型证券投资基金A</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3463,36 +3217,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002261</t>
+          <t>009006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中银宝利灵活配置混合A</t>
+          <t>创金合信鑫祺混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31.13</t>
+          <t>29.96</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3501,36 +3255,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002614</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合A</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3539,36 +3293,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003967</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银润利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.85</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>57.83</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3577,302 +3324,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002615</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银颐利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.43</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>65.08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002435</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银宏利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011808</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>012492</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.13</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002262</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银宝利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>67.70</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>67.70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3886,128 +3360,654 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.24</v>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鼎诚3个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.46</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>2.24</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.46</v>
       </c>
     </row>
@@ -583,6 +600,932 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>47.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1474,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1796,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2194,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2742,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3354,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002532-天山铝业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>2.24</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>2.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.46</v>
       </c>
     </row>
@@ -600,6 +617,2070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011798</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011799</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安宁享6个月混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016179</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +3606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2417,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2739,7 +4820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3137,7 +5218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3685,7 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4297,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
